--- a/IBK/excel/RA_INVOICE_result_0702.xlsx
+++ b/IBK/excel/RA_INVOICE_result_0702.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="116">
   <si>
     <t>file name</t>
   </si>
@@ -192,50 +192,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>U$ 633.40</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>U$ 311.74</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>U$ 672.10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>U$ 355.36</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>U$ 149.84</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>U$ 98.61</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>U$ 130.00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>U$ 66.00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>U$ 305.00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>U$ 547.40</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>U$ 563.52</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>AHBM9IU30480</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -244,151 +200,177 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>KYUNG-IN PRECISION MACHINERY CO. LTD. 92-8 SIWOO-RO  DANWON-GU. ANSAN-SI. GYEONGGI-DO 15436  SOUTH KOREA.</t>
-  </si>
-  <si>
-    <t>USD10 800.00</t>
-  </si>
-  <si>
-    <t>E-WOO TRADING CO.  LTD. RM203 HANGANG CITY LIFE B/D 834 OLYMPIC-RO  GANGDONG-GU SEOUL  KOREA</t>
-  </si>
-  <si>
-    <t>USD14 279.55</t>
-  </si>
-  <si>
-    <t>CHUNG JUNG OIL CHEMICAL CO. LTD. 116-18  BYOLMANG-RO  458 BEON-GIL  DANWON-GU  ANSAN-SI  KYEONGGI-DO  KOREA</t>
-  </si>
-  <si>
-    <t>US$28 462.50</t>
-  </si>
-  <si>
-    <t>CHUNG JUNG OIL CHEMICAL CO.  LTD. 116-18  BYOLMANG-RO  459 BEON-GIL  DANWON-GU  ANSAN-SI  KYEONGGI-DO  KOREA</t>
-  </si>
-  <si>
-    <t>US$11 830.0</t>
-  </si>
-  <si>
-    <t>BU KWANG INDUSTRY CO. LT NO.22-7 PACKSA-RI  WACHON-MUN  GYEONGSAN-SI. KOREA</t>
-  </si>
-  <si>
     <t>￥3 585 790</t>
   </si>
   <si>
-    <t>Samkyung Altec Co.  Ltd 144 Block 2 Lot  Nam Dong Complex 716 Go-Jan Dong  Namdong-gu  Incheon Korea</t>
-  </si>
-  <si>
-    <t>US$40 014.26</t>
-  </si>
-  <si>
-    <t>Samkyung Altec Co.  Ltd 144 Block 2 Lot  Nam Dong Complex 716-11 Go-Jan Dong  Namdong-gu  Incheon Korea.</t>
-  </si>
-  <si>
-    <t>US$43 355.78</t>
-  </si>
-  <si>
     <t>US$1 080</t>
   </si>
   <si>
-    <t>US$47 064.16</t>
-  </si>
-  <si>
     <t>US$3 000</t>
   </si>
   <si>
     <t>US$2 160</t>
   </si>
   <si>
-    <t>TAE-WON CHENMICAL CO.  70 Noksan Sandan 23 1-Ro  Gandseo-Ku  Busan-46757 Korea</t>
-  </si>
-  <si>
-    <t>KCE INC. (KOREA CRANE ENGINEERING) OFFICE : 908-1 HO  264  CHEONNA CANAL-RO  SEO-GU  INCHEON  KOREA</t>
-  </si>
-  <si>
-    <t>KOREA GAS ENGINEERING  49-19 403-BEONGIL  DAEGOTBOK-RO DAEGOT-MYEON GIMPO-SI  GYEONGGI-DO  SOUTH KOREA</t>
-  </si>
-  <si>
-    <t>USD86 240.00</t>
-  </si>
-  <si>
-    <t>BTSC CO.  LTD.5F  BTS BUILDING  349. JUNGANG-RO  YANGCHEON-GU  SEOUL  07933  KOREA</t>
-  </si>
-  <si>
-    <t>U$ 1 160.00</t>
-  </si>
-  <si>
-    <t>U$ 3 718.00</t>
-  </si>
-  <si>
-    <t>BTSC CO.  LTD.5F  BTS BUILDING  349. JUNGANG-RO  YANGCHEON-GU  SEOUL  KOREA</t>
-  </si>
-  <si>
-    <t>U$ 13 864.28</t>
-  </si>
-  <si>
-    <t>U$ 13 849.80</t>
-  </si>
-  <si>
-    <t>U$ 3 307.82</t>
-  </si>
-  <si>
-    <t>U$ 1 416.96</t>
-  </si>
-  <si>
-    <t>U$ 9 723.20</t>
-  </si>
-  <si>
-    <t>U$ 31 826.75</t>
-  </si>
-  <si>
-    <t>U$ 1 711.43</t>
-  </si>
-  <si>
-    <t>U$ 30 147.06</t>
-  </si>
-  <si>
-    <t>U$ 1 468.93</t>
-  </si>
-  <si>
-    <t>U$ 12 221.40</t>
-  </si>
-  <si>
-    <t>BTSC CO.  LTD NINGBO OFFICE ROOM 1702  JIANGCHEN BUILDING  NO. 99  TAI HUI LANE  YINZHOU  NINGBO  CHINA (ZIP CODE:315194)</t>
-  </si>
-  <si>
-    <t>U$ 1 915.42</t>
-  </si>
-  <si>
-    <t>U$ 4 307.92</t>
-  </si>
-  <si>
-    <t>U$ 6 961.50</t>
-  </si>
-  <si>
-    <t>BTSC VN CO. LTD. 7TH FLOOR   V.BUILDING   400/8A UNG VAN KHIEM STREET 25TH WARD BINH THANH DISTRICT  HO CHI MINH  VIETNAM</t>
-  </si>
-  <si>
-    <t>BTSC CO.  LTD NINGBO OFFICE ROOM 1702  JIANGCHEN BUILDING  NO. 99  TAI HUI LANE. YINZHOU  NINGBO. CHINA (ZIP CODE: 315194)</t>
-  </si>
-  <si>
-    <t>U$ 2 785.17</t>
-  </si>
-  <si>
-    <t>U$ 3 859.54</t>
-  </si>
-  <si>
-    <t>U$ 3 145.10</t>
-  </si>
-  <si>
-    <t>GIGAVIS CO. LTD.53-86  JINWISANDAN-RO  JINWI-MYEON  PYEONGTAEK-SI GYEONGGI-DO  KOREA</t>
-  </si>
-  <si>
     <t>USD 495 000</t>
   </si>
   <si>
-    <t>SD BIOSENSOR INC.C-4/5FLOOR  16  DEOGYEONG-DAERO 1556BEON-GIL  YEONGTONG-GU SUWON-SI  GYEONGGI-DO 16690  REPUBLIC OF KOREA</t>
-  </si>
-  <si>
-    <t>USD 25 880.00</t>
+    <t>KOREA GAS ENGINEERING</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">KYUNG-IN PRECISION MACHINERY CO   LTD </t>
+  </si>
+  <si>
+    <t>USD10 800 00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-WOO TRADING CO   LTD </t>
+  </si>
+  <si>
+    <t>USD14 279 55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHUNG JUNG OIL CHEMICAL CO  LTD </t>
+  </si>
+  <si>
+    <t>US$28 462 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHUNG JUNG OIL CHEMICAL CO   LTD </t>
+  </si>
+  <si>
+    <t>US$11 830 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BU KWANG INDUSTRY CO  LT </t>
+  </si>
+  <si>
+    <t>Samkyung Altec Co   Ltd</t>
+  </si>
+  <si>
+    <t>US$40 014 26</t>
+  </si>
+  <si>
+    <t>US$43 355 78</t>
+  </si>
+  <si>
+    <t>US$47 064 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAE-WON CHENMICAL CO  </t>
+  </si>
+  <si>
+    <t>KCE INC  (KOREA CRANE ENGINEERING)</t>
+  </si>
+  <si>
+    <t>USD86 240 00</t>
+  </si>
+  <si>
+    <t>BTSC CO   LTD</t>
+  </si>
+  <si>
+    <t>U$ 1 160 00</t>
+  </si>
+  <si>
+    <t>U$ 3 718 00</t>
+  </si>
+  <si>
+    <t>U$ 13 864 28</t>
+  </si>
+  <si>
+    <t>U$ 13 849 80</t>
+  </si>
+  <si>
+    <t>U$ 3 307 82</t>
+  </si>
+  <si>
+    <t>U$ 633 40</t>
+  </si>
+  <si>
+    <t>U$ 1 416 96</t>
+  </si>
+  <si>
+    <t>U$ 9 723 20</t>
+  </si>
+  <si>
+    <t>U$ 31 826 75</t>
+  </si>
+  <si>
+    <t>U$ 1 711 43</t>
+  </si>
+  <si>
+    <t>U$ 311 74</t>
+  </si>
+  <si>
+    <t>U$ 30 147 06</t>
+  </si>
+  <si>
+    <t>U$ 1 468 93</t>
+  </si>
+  <si>
+    <t>U$ 672 10</t>
+  </si>
+  <si>
+    <t>U$ 12 221 40</t>
+  </si>
+  <si>
+    <t>U$ 355 36</t>
+  </si>
+  <si>
+    <t>U$ 1 915 42</t>
+  </si>
+  <si>
+    <t>U$ 149 84</t>
+  </si>
+  <si>
+    <t>U$ 4 307 92</t>
+  </si>
+  <si>
+    <t>U$ 6 961 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTSC VN CO  LTD </t>
+  </si>
+  <si>
+    <t>U$ 98 61</t>
+  </si>
+  <si>
+    <t>U$ 130 00</t>
+  </si>
+  <si>
+    <t>U$ 66 00</t>
+  </si>
+  <si>
+    <t>U$ 2 785 17</t>
+  </si>
+  <si>
+    <t>U$ 3 859 54</t>
+  </si>
+  <si>
+    <t>U$ 3 145 10</t>
+  </si>
+  <si>
+    <t>U$ 305 00</t>
+  </si>
+  <si>
+    <t>U$ 547 40</t>
+  </si>
+  <si>
+    <t>U$ 563 52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIGAVIS CO  LTD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD BIOSENSOR INC </t>
+  </si>
+  <si>
+    <t>USD 25 880 00</t>
+  </si>
+  <si>
+    <t>30800</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -468,8 +450,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -771,15 +753,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="142.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.625" customWidth="1"/>
+    <col min="2" max="2" width="43.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.625" style="4" bestFit="1" customWidth="1"/>
   </cols>
@@ -803,13 +785,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
         <v>53</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -817,10 +799,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -828,10 +810,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -839,10 +821,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -850,13 +832,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
         <v>55</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -864,10 +846,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -875,10 +857,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -886,10 +868,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -897,10 +879,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -908,10 +890,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -919,10 +901,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -930,13 +912,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="8">
-        <v>30800</v>
+      <c r="D13" s="9" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -944,19 +926,19 @@
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="9"/>
+        <v>79</v>
+      </c>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -964,10 +946,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -975,10 +957,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -986,10 +968,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -997,10 +979,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1008,10 +990,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1019,10 +1001,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1030,7 +1012,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1038,10 +1020,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1049,10 +1031,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1060,10 +1042,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1071,10 +1053,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1082,10 +1064,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1093,10 +1075,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1104,10 +1086,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1115,10 +1097,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1126,10 +1108,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1137,10 +1119,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1148,10 +1130,10 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1159,10 +1141,10 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1170,10 +1152,10 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1181,10 +1163,10 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1192,10 +1174,10 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1203,10 +1185,10 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1214,10 +1196,10 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1225,10 +1207,10 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1236,10 +1218,10 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1247,10 +1229,10 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1258,10 +1240,10 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1269,10 +1251,10 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1280,10 +1262,10 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1291,10 +1273,10 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1302,13 +1284,13 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C47" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1316,13 +1298,13 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C48" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1330,13 +1312,13 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C49" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1344,13 +1326,13 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C50" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1358,13 +1340,13 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C51" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
